--- a/financial_files/excel/STX.xlsx
+++ b/financial_files/excel/STX.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O113" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O113" headerRowCount="1">
   <autoFilter ref="A1:O113"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/STX.xlsx
+++ b/financial_files/excel/STX.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2019"/>
     <tableColumn id="14" name="2020"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2001"/>
+    <tableColumn id="3" name="2002"/>
+    <tableColumn id="4" name="2003"/>
+    <tableColumn id="5" name="2004"/>
+    <tableColumn id="6" name="2005"/>
+    <tableColumn id="7" name="2006"/>
+    <tableColumn id="8" name="2007"/>
+    <tableColumn id="9" name="2008"/>
+    <tableColumn id="10" name="2009"/>
+    <tableColumn id="11" name="2010"/>
+    <tableColumn id="12" name="2011"/>
+    <tableColumn id="13" name="2012"/>
+    <tableColumn id="14" name="2013"/>
+    <tableColumn id="15" name="2014"/>
+    <tableColumn id="16" name="2015"/>
+    <tableColumn id="17" name="2016"/>
+    <tableColumn id="18" name="2017"/>
+    <tableColumn id="19" name="2018"/>
+    <tableColumn id="20" name="2019"/>
+    <tableColumn id="21" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B54" headerRowCount="1">
+  <autoFilter ref="A1:B54"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6710,4 +6753,2245 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5966000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6087000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6486000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6224000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7553000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9206000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11360000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12708000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9805000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11395000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10971000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14939000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>14351000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13724000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13739000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11160000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10771000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11184000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10390000000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10509000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5966000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>378000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>700000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>503000000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>722000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>878000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>643000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1464000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-135000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1863000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>824000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3112000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2093000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1800000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1470000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>620000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1232000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1723000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1465000000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1382000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>239000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>660000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>428000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>732000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>924000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>561000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1329000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2814000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1569000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>579000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2882000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1831000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1556000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1970000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>274000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>815000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1418000000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1372000000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1032000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-86000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-19000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>101000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-25000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-84000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>352000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-67000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-311000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-68000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-20000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-228000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-26000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-43000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-236000000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>640000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-28000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>456000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>428000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>470000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>498000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>502000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>524000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>587000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>538000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>488000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>514000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>467000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>441000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>382000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>347000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>331000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>302000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>299000000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>292000000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>285000000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>265000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2966000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3095000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3517000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3942000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5244000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9544000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9472000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10120000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7087000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8247000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9225000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10106000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9243000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9492000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9845000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8213000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>9268000000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9410000000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8885000000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8930000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>330000000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>330000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>360000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>771000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>329000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>560000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>499000000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>749000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>745000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>739000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>736000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>640000000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1733000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1670000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1926000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2173000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2952000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2863000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2774000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3920000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4155000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4091000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5021000000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4320000000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4253000000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4156000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>653000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>641000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1316000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1855000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2541000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5212000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4737000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4586000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1554000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2724000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2463000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3497000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3506000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2832000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3018000000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1593000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1364000000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1665000000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2162000000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1787000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>905000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>882000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>635000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1428000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1457000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>943000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2538000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>823000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1932000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1264000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3262000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3047000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2558000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2650000000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1680000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1916000000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2113000000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1761000000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1714000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-540000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-480000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-605000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-691000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1008000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-851000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-901000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-626000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-618000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-766000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-616000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-757000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-556000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-747000000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-587000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-434000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-295000000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-458000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-584000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2904</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2135</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6116</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3029</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2151</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2206</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.7396</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1632</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7199</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.3978</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3607</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3953</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1837</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2788</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.4558</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2366</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.0176</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0202</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0655</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.0403</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2135</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2188</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2339</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1186</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.2284</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1621</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.0372</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3616</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.0393</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0436</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.1877</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.0348</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0383</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.0709</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.6176</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.2771</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.7777</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.2205</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-3.7118</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.4906</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.6528</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.9541</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.2588</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.0602</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1637</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.8441</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1463</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.7432</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.4631</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.778</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.0183</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3698</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.0511</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.0911</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.0318</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.6611</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.7528</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0958</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.1922</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.06560000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.4721</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.1437</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.2206</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2984</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.1734</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.0254</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.2488</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.3527</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.6914</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.6757</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.3475</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.3457</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.5806</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.0659</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1604</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.366</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1404</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1665</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.0266</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.9253</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23.5666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.3907</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.7951</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16.7934</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.8796</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.621</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.3132</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.1345</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.1257</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.0494</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.4256</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3559</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.2832</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.1327</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>365000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>402000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>737000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>449000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>92000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1637000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>197000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1314000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>498000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2646000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2290000000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2002000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1903000000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1093000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1482000000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1818000000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1303000000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1130000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.4976</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.7248</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.0617</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.9465</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.069800000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.524100000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.1844</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.2996</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.274</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.9297</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.178000000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.161300000000001</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.117800000000001</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5.2748</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.5618</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.702</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7.5859</v>
+      </c>
+      <c r="U21" t="n">
+        <v>6.7433</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7746055500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6631970280</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8367243300</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13039462720</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11807030670</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9280479510</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5156874140</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6131942640</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6861729920</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9793896090</v>
+      </c>
+      <c r="N22" t="n">
+        <v>16113560710</v>
+      </c>
+      <c r="O22" t="n">
+        <v>18553945980</v>
+      </c>
+      <c r="P22" t="n">
+        <v>14983685000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>7273213920</v>
+      </c>
+      <c r="R22" t="n">
+        <v>11307250000</v>
+      </c>
+      <c r="S22" t="n">
+        <v>16216489900</v>
+      </c>
+      <c r="T22" t="n">
+        <v>12679897760</v>
+      </c>
+      <c r="U22" t="n">
+        <v>12427766790</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.0843</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.5368</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.8348</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15.5231</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12.9321</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.3537</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1.6501</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13.428</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.422</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.7668</v>
+      </c>
+      <c r="O23" t="n">
+        <v>11.8177</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8.6014</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>29.3274</v>
+      </c>
+      <c r="R23" t="n">
+        <v>14.6466</v>
+      </c>
+      <c r="S23" t="n">
+        <v>13.7195</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6.3021</v>
+      </c>
+      <c r="U23" t="n">
+        <v>12.3782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>32.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>32.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-5.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-11.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-6.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>13.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-46.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-5.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-0.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-9.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-8.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-13.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-8.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-3.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4156000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.916999934845942</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0449</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.001524375401736972</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.001524375401736972</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.857698081363912</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>12.24097</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.3048750803473943</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3048750803473943</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.176116012511811</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.2907178909179528</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.1453589454589764</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Seagate Technology PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Computer Hardware</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.seagate.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>15570078720</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3258862</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11.098901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>